--- a/rebuke.xlsx
+++ b/rebuke.xlsx
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>

--- a/rebuke.xlsx
+++ b/rebuke.xlsx
@@ -3,14 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3552" yWindow="1584" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-7356" yWindow="2028" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="691_3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="691_4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -35,15 +41,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,13 +63,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,15 +442,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.77734375" customWidth="1" min="1" max="1"/>
+    <col width="13.21875" customWidth="1" min="1" max="1"/>
     <col width="15.21875" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14.109375" customWidth="1" min="4" max="4"/>
@@ -456,9 +497,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Иванов</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Афонин Д.С.</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,9 +522,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Петров</t>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Бодунов Г.А.</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -496,24 +537,24 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гамзаев Р.Г. </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
@@ -521,64 +562,292 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Глебов К.И.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Житихин А.Е.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Захаров О.О.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Смольный</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Иванов Д.С.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Киселев К.В.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Коноваленко В.Р.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Кусаинов К.С.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Масков Г.К.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Скрипкин Н.А.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сысоев М.М. </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шишкарев З.А. </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,16 +861,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.77734375" customWidth="1" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -612,69 +886,3428 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Выговор от:</t>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Васильев</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Нф</t>
-        </is>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Алексеенко А.Д.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Зарипов</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>КУГ</t>
-        </is>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Горбунов Б.А.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Котов</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>КО</t>
-        </is>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Гулевский И.С.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Козлов</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Старшина</t>
-        </is>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Загитов М.С.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Федотов</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>НК</t>
-        </is>
-      </c>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Кирилы В.А.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Лобань И.В.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Марилов Н.А. </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Родионов Е.С.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Рыбин А.Д.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Снигиревич Д.Г.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Толмасов Е.В.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Тютюкин П.В.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Хакуринов Р.А.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.21875" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Абрамов А.А.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Бабичев А.А.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Белоцкий Н.Г.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Брума Р.С.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Гайдученко И.А.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запрягаев А.Д. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Краснов Т.А.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Левицкий А.В.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Меньшиков Д.О.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Мещеряков Д.А.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Мухамедвалиев Р.Ш.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Русин В.В.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Страдинь Д.В.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Чичалов М.Р. </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.21875" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Алиев А.О.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Воронецкий А.Е.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Кешев А.А.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Коновалов П.И.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Копица Е.А.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Красников В.А.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Лаврентьев С.А.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Лысенко Е.Е.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Малых А.В.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Миннигалин Д.Р.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мокрушин В.А. </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Морозов Д.В.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Носов Е.А.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Порубай Я.В. </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Шашков Д.А.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="16.109375" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Аветисян Е.А.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Алексеев И.В.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бологов А.Л. </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Волосков Д.О. </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гордеев Е.П. </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Желнов М.Е. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Кайзер М.С.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Калинкин Д.С. </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Касаткин Д.П.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Левковец Д.В.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мамонтов С.В. </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Покидов В.Л.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Потапов Н.И. </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Сухобоков Н.О.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Филатов А.М.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Чаплин Е.Д.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Шумаков А.К.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="16.6640625" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Адельшин Р.Р.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Барановский Д.Я. </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Борисенков Е.П.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Глушков Р.В.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Долгоруков А.Д.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Жарковский Г.И.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Иргашев А.У. </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Карагулов С.А. </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Колпаков А.С.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Ледовских Е.С.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Макарьев С.А. </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Мельников А.Д.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Поляков К.Е.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Пушихин М.А.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Уткин А.В.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Фролов С.И.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Ширинский А.А.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Яковлев А.Ю.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Аржанухин А.С.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Бугорков Н.В.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Васильев С.А.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Захаров М.Т.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Каманин И.С.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Клюев Ю.В.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Лазорко Н.А. </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Лобач А.Ю.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Лутай Д.В.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Макурин А.Е. </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Минин С.Б.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Насвет М.Л.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Новиков Я.В.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Парчайкин А.А.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Плотников Е.А.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Сахарчук Р.Д.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Соломатин Д.В.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Страх А.Д.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Тютрин Н.П.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.21875" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14.109375" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.5546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5546875" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НФ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от НК</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КО</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от старшины</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КУГ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Выговор от КомО</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Аскеров Р.Ф.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Варава А.А.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Колбасенко Н.А.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Лагишенец Н.В.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Лунин М.А.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мазуров Е.А. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Матюхин С.О.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Могилевец Н.С.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Облизин А.Р.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Петров В.В.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подачин Е.Е. </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Прокопенко Д.Д.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Сарсадских А.С.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Соловьев П.В.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Стовба И.И.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Трифонов И.О.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Чебаненко К.В.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Чепурнов Д.Р. </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Чубур С.В.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Ширшов Д.Е.</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Янданов А.Ч.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Ященко Р.А.</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
